--- a/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Capstone-Project\Sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E4ECD1-AF1E-4569-B4DF-D55B4733F37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDDEB0D-F851-4F5B-B5FC-A39348F2BB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Related User Story</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>revise project creation to generate default set of stages to the project board (TODO, InProgress, Done)</t>
+  </si>
+  <si>
+    <t>Implement Database for task management</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -335,19 +338,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -469,18 +475,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$E$21</c:f>
+              <c:f>Sheet1!$C$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,7 +1236,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1522,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,47 +1545,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1597,7 +1603,7 @@
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1619,7 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1629,7 +1635,7 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1651,7 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
@@ -1661,7 +1667,7 @@
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
@@ -1677,7 +1683,7 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
@@ -1693,177 +1699,175 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
         <v>0</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="14" t="s">
-        <v>20</v>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
       <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
         <v>0</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
       <c r="B19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="8">
         <v>0</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -1879,46 +1883,59 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4">
-        <f>SUM(C4:C20)</f>
-        <v>20</v>
-      </c>
-      <c r="D21" s="4">
-        <f>SUM(D4:D20)</f>
-        <v>17</v>
-      </c>
-      <c r="E21" s="4">
-        <f>SUM(E4:E20)</f>
-        <v>13</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="17"/>
+      <c r="C22" s="4">
+        <f>SUM(C4:C21)</f>
+        <v>21</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUM(D4:D21)</f>
+        <v>18</v>
+      </c>
+      <c r="E22" s="4">
+        <f>SUM(E4:E21)</f>
+        <v>14</v>
+      </c>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="16"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>16</v>
-      </c>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="16"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
@@ -1928,6 +1945,11 @@
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1935,8 +1957,8 @@
   <mergeCells count="9">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>

--- a/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Capstone-Project\Sprints\Sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Documents\GitHub\Capstone-Project\Sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDDEB0D-F851-4F5B-B5FC-A39348F2BB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD1A4A-974C-4F7F-85DE-A2DA72ADB629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="3990" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Related User Story</t>
   </si>
@@ -206,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -286,23 +286,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -337,7 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1531,7 +1519,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,47 +1533,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1603,7 +1591,7 @@
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
@@ -1616,10 +1604,12 @@
       <c r="E5" s="8">
         <v>2</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1635,7 +1625,7 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +1641,7 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
@@ -1667,7 +1657,7 @@
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
@@ -1680,10 +1670,12 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
@@ -1699,7 +1691,7 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1712,7 +1704,9 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -1735,7 +1729,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1755,7 +1749,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
@@ -1773,7 +1767,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
@@ -1791,7 +1785,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
@@ -1809,7 +1803,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1821,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1847,7 +1841,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1859,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
@@ -1883,7 +1877,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1911,6 @@
         <f>SUM(E4:E21)</f>
         <v>14</v>
       </c>
-      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>

--- a/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Capstone-Project\Sprints\Sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Documents\GitHub\Capstone-Project\Sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDDEB0D-F851-4F5B-B5FC-A39348F2BB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6653EF42-F82E-4189-BD92-F9C9FF65689C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="3990" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Related User Story</t>
   </si>
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1616,9 @@
       <c r="E5" s="8">
         <v>2</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
@@ -1680,7 +1682,9 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
@@ -1712,7 +1716,9 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">

--- a/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Documents\GitHub\Capstone-Project\Sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6653EF42-F82E-4189-BD92-F9C9FF65689C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB30B10-817F-4809-A868-8ED6F54E3F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="3990" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>16</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>16</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="E22" s="4">
         <f>SUM(E4:E21)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" s="18"/>
     </row>

--- a/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Documents\GitHub\Capstone-Project\Sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB30B10-817F-4809-A868-8ED6F54E3F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCC927C-A395-4199-8BAD-6FD8F2D46F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="3990" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Related User Story</t>
   </si>
@@ -486,7 +486,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>16</v>
@@ -1648,9 +1648,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
@@ -1664,9 +1666,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -1921,7 +1925,7 @@
       </c>
       <c r="E22" s="4">
         <f>SUM(E4:E21)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F22" s="18"/>
     </row>

--- a/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Documents\GitHub\Capstone-Project\Sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCC927C-A395-4199-8BAD-6FD8F2D46F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F1E9C5-9A54-45F5-89FA-C09610E7DD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="3990" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>16</v>
@@ -1794,7 +1794,7 @@
         <v>0.5</v>
       </c>
       <c r="E15" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>16</v>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="E22" s="4">
         <f>SUM(E4:E21)</f>
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="F22" s="18"/>
     </row>

--- a/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint3/G4CapstoneProject_Sprint3_Backlog_Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Documents\GitHub\Capstone-Project\Sprints\Sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Capstone-Project\Sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F1E9C5-9A54-45F5-89FA-C09610E7DD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9158C6AC-FE7F-4C97-AFA3-BDC73A1877CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="3990" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Related User Story</t>
   </si>
@@ -116,28 +116,37 @@
     <t>Implement and test Model classes for task management</t>
   </si>
   <si>
-    <t>Implement and test updating stage of assigned Task (autodrop assignment, proper assignment if stage is assigned to group)</t>
-  </si>
-  <si>
     <t>Implement and test creating/deleting a task on the board (manager, admin, project lead)</t>
   </si>
   <si>
-    <t>Can view tasks on the project board in the different stages</t>
-  </si>
-  <si>
     <t>Implement assigning a Task on the board to myself</t>
   </si>
   <si>
     <t>Implement assign a Task on the board to a member of my group (manager)</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement view to edit/delete task (editing should be based on user perms) </t>
-  </si>
-  <si>
     <t>revise project creation to generate default set of stages to the project board (TODO, InProgress, Done)</t>
   </si>
   <si>
     <t>Implement Database for task management</t>
+  </si>
+  <si>
+    <t>Implement and test updating stage of assigned Task (autodrop assignment, proper assignment if stage is assigned to group) Admin side</t>
+  </si>
+  <si>
+    <t>Implement view to edit/delete task (editing should be based on user perms) Admin side</t>
+  </si>
+  <si>
+    <t>Implement view to edit/delete task (editing should be based on user perms) Employee/Manager side</t>
+  </si>
+  <si>
+    <t>Implement and test updating stage of assigned Task (autodrop assignment, proper assignment if stage is assigned to group) Employee/Manager side</t>
+  </si>
+  <si>
+    <t>Can view tasks on the project board in the different stages (admin side)</t>
+  </si>
+  <si>
+    <t>Can view tasks on the project board in the different stages (employee side)</t>
   </si>
 </sst>
 </file>
@@ -475,18 +484,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$E$22</c:f>
+              <c:f>Sheet1!$C$25:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,13 +1239,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>111442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1528,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1598,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5">
         <v>0.5</v>
@@ -1598,26 +1607,28 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
         <v>0.5</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>16</v>
+      <c r="D5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1632,50 +1643,52 @@
         <v>2</v>
       </c>
       <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="10" t="s">
-        <v>30</v>
+      <c r="B8" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="10" t="s">
-        <v>24</v>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1693,7 +1706,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1702,14 +1715,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1724,32 +1739,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>25</v>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1761,13 +1772,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1782,72 +1793,74 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C18" s="7">
         <v>0.5</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D18" s="8">
         <v>0.5</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -1856,10 +1869,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="10" t="s">
-        <v>11</v>
+      <c r="B19" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -1871,95 +1884,151 @@
         <v>0</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="4">
-        <f>SUM(C4:C21)</f>
-        <v>21</v>
-      </c>
-      <c r="D22" s="4">
-        <f>SUM(D4:D21)</f>
-        <v>18</v>
-      </c>
-      <c r="E22" s="4">
-        <f>SUM(E4:E21)</f>
-        <v>6.5</v>
-      </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="16"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
+      <c r="C25" s="4">
+        <f>SUM(C4:C24)</f>
+        <v>24.5</v>
+      </c>
+      <c r="D25" s="4">
+        <f>SUM(D4:D24)</f>
+        <v>21.5</v>
+      </c>
+      <c r="E25" s="4">
+        <f>SUM(E4:E24)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="16"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1967,13 +2036,13 @@
   <mergeCells count="9">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A16:A20"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A4:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
